--- a/odkx/app/config/tables/hh_water_body/forms/hh_water_body/hh_water_body.xlsx
+++ b/odkx/app/config/tables/hh_water_body/forms/hh_water_body/hh_water_body.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -90,6 +90,15 @@
     <t xml:space="preserve">53aii</t>
   </si>
   <si>
+    <t xml:space="preserve">stand_flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water_stand_flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53aiii</t>
+  </si>
+  <si>
     <t xml:space="preserve">end screen</t>
   </si>
   <si>
@@ -111,6 +120,12 @@
     <t xml:space="preserve">transient</t>
   </si>
   <si>
+    <t xml:space="preserve">standing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowing</t>
+  </si>
+  <si>
     <t xml:space="preserve">setting_name</t>
   </si>
   <si>
@@ -210,6 +225,15 @@
     <t xml:space="preserve">53a (ii). Eneo la maji lililo karibu (&lt; 50m) na kaya yako ni la aina gani?</t>
   </si>
   <si>
+    <t xml:space="preserve">53a(iii). Is this water body standing or flowing?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53a(iii). É água estagnada ou corrente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53a(iii). Je, maji haya yametuama au yanatiririka?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Household Identification {{data.hh_id}}</t>
   </si>
   <si>
@@ -253,6 +277,24 @@
   </si>
   <si>
     <t xml:space="preserve">Maji ya muda mfupi (huwepo kunaponyesha tu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estagnada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yametuama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yanatiririka</t>
   </si>
 </sst>
 </file>
@@ -262,7 +304,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -291,6 +333,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -335,7 +383,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -345,6 +393,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -449,7 +501,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -488,13 +540,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="9.7"/>
@@ -572,8 +624,22 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -592,13 +658,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.67"/>
@@ -607,13 +673,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -621,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -632,10 +698,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -643,10 +709,32 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +759,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.97"/>
@@ -685,41 +773,41 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>20210119001</v>
@@ -727,29 +815,29 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -757,50 +845,50 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -825,7 +913,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -840,10 +928,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -859,7 +947,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -878,10 +966,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -893,16 +981,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -910,13 +998,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -924,84 +1012,126 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="0"/>
+        <v>71</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/app/config/tables/hh_water_body/forms/hh_water_body/hh_water_body.xlsx
+++ b/odkx/app/config/tables/hh_water_body/forms/hh_water_body/hh_water_body.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="91">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t xml:space="preserve">Kiswahili</t>
+  </si>
+  <si>
+    <t xml:space="preserve">showFooter</t>
   </si>
   <si>
     <t xml:space="preserve">hh_id</t>
@@ -304,7 +307,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -333,12 +336,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -383,7 +380,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -393,10 +390,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -501,7 +494,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -542,11 +535,11 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="9.7"/>
@@ -664,11 +657,11 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="41.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="41.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -753,15 +746,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.78"/>
@@ -810,7 +803,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>20210119001</v>
+        <v>20210221001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -889,6 +882,14 @@
       </c>
       <c r="H9" s="1" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -913,7 +914,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -928,10 +929,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -947,7 +948,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -972,25 +973,25 @@
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.16796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="15.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="2" width="37.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="2" width="37.56"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="2" width="11.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -998,13 +999,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1012,27 +1013,27 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1040,13 +1041,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1054,13 +1055,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" s="0"/>
     </row>
@@ -1069,13 +1070,13 @@
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1083,13 +1084,13 @@
         <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1097,13 +1098,13 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1111,13 +1112,13 @@
         <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1125,13 +1126,13 @@
         <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>89</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/app/config/tables/hh_water_body/forms/hh_water_body/hh_water_body.xlsx
+++ b/odkx/app/config/tables/hh_water_body/forms/hh_water_body/hh_water_body.xlsx
@@ -78,6 +78,9 @@
     <t xml:space="preserve">53ai</t>
   </si>
   <si>
+    <t xml:space="preserve">end screen</t>
+  </si>
+  <si>
     <t xml:space="preserve">select_one</t>
   </si>
   <si>
@@ -97,9 +100,6 @@
   </si>
   <si>
     <t xml:space="preserve">53aiii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end screen</t>
   </si>
   <si>
     <t xml:space="preserve">choice_list_name</t>
@@ -494,7 +494,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -536,7 +536,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.18359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -603,35 +603,35 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="2" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -657,7 +657,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.67"/>
@@ -677,7 +677,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>29</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>30</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>32</v>
@@ -752,7 +752,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.97"/>
@@ -803,7 +803,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>20210221001</v>
+        <v>20210304001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -914,7 +914,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -945,7 +945,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>56</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>64</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>67</v>

--- a/odkx/app/config/tables/hh_water_body/forms/hh_water_body/hh_water_body.xlsx
+++ b/odkx/app/config/tables/hh_water_body/forms/hh_water_body/hh_water_body.xlsx
@@ -219,13 +219,13 @@
     <t xml:space="preserve">53a (i). Chukuwa alama za GPS ya eneo hili la maji (lazima)</t>
   </si>
   <si>
-    <t xml:space="preserve">53a(ii). What is the type of water body close (&lt;50m) to the household?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53a(ii). Qual é o tipo de corpo de água perto (&lt;50 m) do agregado familiar?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53a (ii). Eneo la maji lililo karibu (&lt; 50m) na kaya yako ni la aina gani?</t>
+    <t xml:space="preserve">53a(ii). What is the type of water body close (&amp;#60;50m) to the household?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53a(ii). Qual é o tipo de corpo de água perto (&amp;#60;50 m) do agregado familiar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53a (ii). Eneo la maji lililo karibu (&amp;#60;50m) na kaya yako ni la aina gani?</t>
   </si>
   <si>
     <t xml:space="preserve">53a(iii). Is this water body standing or flowing?</t>
@@ -494,7 +494,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -657,7 +657,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.67"/>
@@ -752,7 +752,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.97"/>
@@ -803,7 +803,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>20210304001</v>
+        <v>20210305001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -914,7 +914,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -970,7 +970,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.16796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
